--- a/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
+++ b/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E9D74-2EEA-4E42-834A-3DA6CCF91188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paso1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,7 +87,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -143,7 +150,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+        <xdr:cNvPr id="3" name="Rectángulo redondeado 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -203,7 +216,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo redondeado 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo redondeado 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -263,7 +282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo redondeado 4"/>
+        <xdr:cNvPr id="5" name="Rectángulo redondeado 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -323,7 +348,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -378,7 +409,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Llamada de nube 6"/>
+        <xdr:cNvPr id="7" name="Llamada de nube 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -435,7 +472,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flecha derecha 7"/>
+        <xdr:cNvPr id="8" name="Flecha derecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -492,7 +535,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flecha derecha 8"/>
+        <xdr:cNvPr id="9" name="Flecha derecha 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -549,7 +598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Flecha izquierda 10"/>
+        <xdr:cNvPr id="11" name="Flecha izquierda 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -856,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
+++ b/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0E9D74-2EEA-4E42-834A-3DA6CCF91188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Paso1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,8 +397,8 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -420,8 +419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334249" y="1400174"/>
-          <a:ext cx="1571625" cy="1133475"/>
+          <a:off x="7334249" y="1800225"/>
+          <a:ext cx="1571625" cy="733424"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst/>
@@ -911,11 +910,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
+++ b/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
@@ -914,7 +914,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
+++ b/Capitulo000_Documento/00_Apunte/Presentacion.xlsx
@@ -73,16 +73,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>99762</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>206542</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147888</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -97,8 +97,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9725025" y="600075"/>
-          <a:ext cx="2543175" cy="2114550"/>
+          <a:off x="9885446" y="509838"/>
+          <a:ext cx="2553201" cy="2114550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -396,15 +396,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>100765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>72189</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -419,8 +419,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7334249" y="1800225"/>
-          <a:ext cx="1571625" cy="733424"/>
+          <a:off x="7548812" y="1624765"/>
+          <a:ext cx="1575636" cy="733424"/>
         </a:xfrm>
         <a:prstGeom prst="cloudCallout">
           <a:avLst/>
@@ -483,69 +483,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6229350" y="876300"/>
-          <a:ext cx="1466850" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>REQUEST</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Flecha derecha 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6257925" y="5095875"/>
           <a:ext cx="1466850" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -913,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="I1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
